--- a/Finflux Automation Excels/Client/4964-BulkJLGLOANon01JAN201-DISBLOAN-OnlyForClient1.xlsx
+++ b/Finflux Automation Excels/Client/4964-BulkJLGLOANon01JAN201-DISBLOAN-OnlyForClient1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1409,7 +1409,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>275.05</v>
+        <v>271.52</v>
       </c>
       <c r="B3" s="16">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="16">
-        <v>275.05</v>
+        <v>271.52</v>
       </c>
       <c r="F3" s="16">
         <v>173.31</v>
@@ -1521,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,21 +2016,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="16">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C12" s="18">
-        <v>42171</v>
+        <v>42157</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16">
-        <v>751.49</v>
+        <v>762.06</v>
       </c>
       <c r="G12" s="17">
-        <v>1545.19</v>
+        <v>1534.62</v>
       </c>
       <c r="H12" s="16">
-        <v>21.14</v>
+        <v>10.57</v>
       </c>
       <c r="I12" s="16">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="16">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C13" s="18">
         <v>42171</v>
@@ -2069,13 +2069,13 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16">
-        <v>772.63</v>
+        <v>765.57</v>
       </c>
       <c r="G13" s="16">
-        <v>772.56</v>
+        <v>769.05</v>
       </c>
       <c r="H13" s="16">
-        <v>0</v>
+        <v>7.06</v>
       </c>
       <c r="I13" s="16">
         <v>0</v>
@@ -2114,13 +2114,13 @@
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
-        <v>772.56</v>
+        <v>769.05</v>
       </c>
       <c r="G14" s="16">
         <v>0</v>
       </c>
       <c r="H14" s="16">
-        <v>3.56</v>
+        <v>3.54</v>
       </c>
       <c r="I14" s="16">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="16">
-        <v>776.12</v>
+        <v>772.59</v>
       </c>
       <c r="L14" s="16">
         <v>0</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="16">
-        <v>776.12</v>
+        <v>772.59</v>
       </c>
     </row>
   </sheetData>
